--- a/Product-backlog.xlsx
+++ b/Product-backlog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Windesheim\Agile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Windesheim\Projecten\PHP\Project-GezinsHuis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C4170BF-250F-4B53-A603-E22F369A2AC9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B8AED0-D607-4699-88EE-9179BC1E71F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{80EEEBEB-20D2-4508-9FC6-6E2B462470EF}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
   <si>
     <t>Omdat &lt;reden&gt;</t>
   </si>
@@ -77,9 +77,6 @@
     <t>verschillende rechten voor verzorgers, ouders en kinderen</t>
   </si>
   <si>
-    <t>dat gebruikers zich kunnen registreren mits, ze het recht hebben</t>
-  </si>
-  <si>
     <t>dat er bij het inloggen de gegevens worden vergeleken met de database</t>
   </si>
   <si>
@@ -96,6 +93,75 @@
   </si>
   <si>
     <t>dat er een bewerk knop is</t>
+  </si>
+  <si>
+    <t>evenementen</t>
+  </si>
+  <si>
+    <t>over ons</t>
+  </si>
+  <si>
+    <t>contact</t>
+  </si>
+  <si>
+    <t>navbar</t>
+  </si>
+  <si>
+    <t>gebruikers kunnen hun eigen informatie zien</t>
+  </si>
+  <si>
+    <t>ouder/verzorgers (met rechten) kunnen het behandelingsplan zien van het kind/kinderen</t>
+  </si>
+  <si>
+    <t>security (epic)</t>
+  </si>
+  <si>
+    <t>admin moet dingen kunnen toevoegen,bewerken en verwijderen (epic) -evenementen, gebruikers, kinderen, etc. dashboard</t>
+  </si>
+  <si>
+    <t>inlog pagina</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>behandelplan</t>
+  </si>
+  <si>
+    <t>commentaar (leesbaar voor ouder) aanpasbaar door verzorger en verzorgers</t>
+  </si>
+  <si>
+    <t>ouders met en zonder rechten(stappen ondernomen behandeling</t>
+  </si>
+  <si>
+    <t>ouders en kind verschillende dingen zien en rechten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">events, bepaalde foto's kunnen alleen getoond worden indien ingelogd </t>
+  </si>
+  <si>
+    <t>mysqlserver</t>
+  </si>
+  <si>
+    <t>!ingelogd events aanmaken , blog/ vlog</t>
+  </si>
+  <si>
+    <t>niet ingelogd 1 algemeen plaatje, ingelogd vele plaatjes</t>
+  </si>
+  <si>
+    <t>bij event aanmaken, plaatje voor niet ingelogd en plaatjes voor wel ingelogd zijn</t>
+  </si>
+  <si>
+    <t>verzorgers kunnen alleen eigen kinderen zien</t>
+  </si>
+  <si>
+    <t>verzorgers kan maar 1 kind tegelijkertijd zien en 1 pdf, 1 behandelplan tegelijkertijd?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contact indirect niet direct maar via ggd/ggz </t>
+  </si>
+  <si>
+    <t>index pagina/login</t>
   </si>
 </sst>
 </file>
@@ -505,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E14BB66-45FB-4B62-A24B-BE0F765FF334}">
-  <dimension ref="B2:E10"/>
+  <dimension ref="B2:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,7 +583,7 @@
     <col min="2" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="58.5703125" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="148.42578125" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
@@ -540,9 +606,6 @@
       <c r="D3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -565,7 +628,7 @@
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
@@ -577,7 +640,7 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
@@ -589,7 +652,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
@@ -601,7 +664,7 @@
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
@@ -613,7 +676,7 @@
         <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
@@ -625,7 +688,120 @@
         <v>11</v>
       </c>
       <c r="E10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
